--- a/team_specific_matrix/ETSU_B.xlsx
+++ b/team_specific_matrix/ETSU_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2118959107806691</v>
+        <v>0.2070063694267516</v>
       </c>
       <c r="C2">
-        <v>0.5427509293680297</v>
+        <v>0.5445859872611465</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01858736059479554</v>
+        <v>0.01592356687898089</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1263940520446097</v>
+        <v>0.124203821656051</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1003717472118959</v>
+        <v>0.1082802547770701</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03333333333333333</v>
+        <v>0.02824858757062147</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04666666666666667</v>
+        <v>0.04519774011299435</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.76</v>
+        <v>0.7457627118644068</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.16</v>
+        <v>0.1807909604519774</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.08823529411764706</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5294117647058824</v>
+        <v>0.6222222222222222</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3823529411764706</v>
+        <v>0.3111111111111111</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03825136612021858</v>
+        <v>0.03896103896103896</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01092896174863388</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0546448087431694</v>
+        <v>0.06926406926406926</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2950819672131147</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01639344262295082</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1092896174863388</v>
+        <v>0.09956709956709957</v>
       </c>
       <c r="R6">
-        <v>0.07650273224043716</v>
+        <v>0.08658008658008658</v>
       </c>
       <c r="S6">
-        <v>0.3989071038251366</v>
+        <v>0.3766233766233766</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.09868421052631579</v>
+        <v>0.108695652173913</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.006578947368421052</v>
+        <v>0.005434782608695652</v>
       </c>
       <c r="E7">
-        <v>0.006578947368421052</v>
+        <v>0.005434782608695652</v>
       </c>
       <c r="F7">
-        <v>0.05921052631578947</v>
+        <v>0.05978260869565218</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1578947368421053</v>
+        <v>0.1413043478260869</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.03289473684210526</v>
+        <v>0.02717391304347826</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1513157894736842</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="R7">
-        <v>0.06578947368421052</v>
+        <v>0.07065217391304347</v>
       </c>
       <c r="S7">
-        <v>0.4210526315789473</v>
+        <v>0.4293478260869565</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1021021021021021</v>
+        <v>0.1037037037037037</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.006006006006006006</v>
+        <v>0.009876543209876543</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04504504504504504</v>
+        <v>0.04197530864197531</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1501501501501502</v>
+        <v>0.1407407407407407</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.006006006006006006</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1831831831831832</v>
+        <v>0.1802469135802469</v>
       </c>
       <c r="R8">
-        <v>0.0990990990990991</v>
+        <v>0.108641975308642</v>
       </c>
       <c r="S8">
-        <v>0.4084084084084084</v>
+        <v>0.4074074074074074</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.07142857142857142</v>
+        <v>0.06796116504854369</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0119047619047619</v>
+        <v>0.01941747572815534</v>
       </c>
       <c r="E9">
-        <v>0.005952380952380952</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="F9">
-        <v>0.07738095238095238</v>
+        <v>0.06796116504854369</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1011904761904762</v>
+        <v>0.0970873786407767</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01785714285714286</v>
+        <v>0.02427184466019417</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1547619047619048</v>
+        <v>0.1601941747572816</v>
       </c>
       <c r="R9">
-        <v>0.1071428571428571</v>
+        <v>0.1067961165048544</v>
       </c>
       <c r="S9">
-        <v>0.4523809523809524</v>
+        <v>0.4514563106796117</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1307619943555974</v>
+        <v>0.1216012084592145</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02539981185324553</v>
+        <v>0.02492447129909366</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08184383819379115</v>
+        <v>0.08081570996978851</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1015992474129821</v>
+        <v>0.1057401812688822</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01128880526810913</v>
+        <v>0.01359516616314199</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2041392285983067</v>
+        <v>0.202416918429003</v>
       </c>
       <c r="R10">
-        <v>0.07525870178739416</v>
+        <v>0.06797583081570997</v>
       </c>
       <c r="S10">
-        <v>0.3697083725305739</v>
+        <v>0.3829305135951662</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1162790697674419</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1007751937984496</v>
+        <v>0.09935897435897435</v>
       </c>
       <c r="K11">
-        <v>0.1782945736434109</v>
+        <v>0.1826923076923077</v>
       </c>
       <c r="L11">
-        <v>0.6007751937984496</v>
+        <v>0.5961538461538461</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.003875968992248062</v>
+        <v>0.00641025641025641</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.6708860759493671</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2531645569620253</v>
+        <v>0.25</v>
       </c>
       <c r="K12">
-        <v>0.03164556962025317</v>
+        <v>0.03125</v>
       </c>
       <c r="L12">
-        <v>0.0189873417721519</v>
+        <v>0.03125</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02531645569620253</v>
+        <v>0.02083333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.275</v>
+        <v>0.32</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.075</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01840490797546012</v>
+        <v>0.01970443349753695</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1288343558282209</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="I15">
-        <v>0.147239263803681</v>
+        <v>0.1330049261083744</v>
       </c>
       <c r="J15">
-        <v>0.2883435582822086</v>
+        <v>0.2906403940886699</v>
       </c>
       <c r="K15">
-        <v>0.0736196319018405</v>
+        <v>0.07389162561576355</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01226993865030675</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0736196319018405</v>
+        <v>0.06403940886699508</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2576687116564417</v>
+        <v>0.2610837438423645</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02424242424242424</v>
+        <v>0.02051282051282051</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2060606060606061</v>
+        <v>0.1948717948717949</v>
       </c>
       <c r="I16">
         <v>0.06666666666666667</v>
       </c>
       <c r="J16">
-        <v>0.3636363636363636</v>
+        <v>0.3641025641025641</v>
       </c>
       <c r="K16">
-        <v>0.1151515151515152</v>
+        <v>0.1128205128205128</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0303030303030303</v>
+        <v>0.03076923076923077</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03636363636363636</v>
+        <v>0.03589743589743589</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1575757575757576</v>
+        <v>0.1743589743589744</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01166180758017493</v>
+        <v>0.01658767772511848</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1807580174927114</v>
+        <v>0.1635071090047393</v>
       </c>
       <c r="I17">
-        <v>0.07580174927113703</v>
+        <v>0.07582938388625593</v>
       </c>
       <c r="J17">
-        <v>0.3935860058309038</v>
+        <v>0.4075829383886256</v>
       </c>
       <c r="K17">
-        <v>0.09912536443148688</v>
+        <v>0.1042654028436019</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02332361516034985</v>
+        <v>0.02132701421800948</v>
       </c>
       <c r="N17">
-        <v>0.002915451895043732</v>
+        <v>0.002369668246445498</v>
       </c>
       <c r="O17">
-        <v>0.05830903790087463</v>
+        <v>0.05450236966824645</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1545189504373178</v>
+        <v>0.1540284360189574</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03246753246753246</v>
+        <v>0.02645502645502645</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1688311688311688</v>
+        <v>0.164021164021164</v>
       </c>
       <c r="I18">
-        <v>0.08441558441558442</v>
+        <v>0.08465608465608465</v>
       </c>
       <c r="J18">
-        <v>0.4285714285714285</v>
+        <v>0.4497354497354497</v>
       </c>
       <c r="K18">
-        <v>0.06493506493506493</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.01058201058201058</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03896103896103896</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1818181818181818</v>
+        <v>0.1693121693121693</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0168141592920354</v>
+        <v>0.02001429592566119</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1725663716814159</v>
+        <v>0.174410293066476</v>
       </c>
       <c r="I19">
-        <v>0.0831858407079646</v>
+        <v>0.08434596140100072</v>
       </c>
       <c r="J19">
-        <v>0.3769911504424779</v>
+        <v>0.3824160114367405</v>
       </c>
       <c r="K19">
-        <v>0.1097345132743363</v>
+        <v>0.1050750536097212</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02123893805309734</v>
+        <v>0.02072909220872051</v>
       </c>
       <c r="N19">
-        <v>0.0008849557522123894</v>
+        <v>0.0007147962830593281</v>
       </c>
       <c r="O19">
-        <v>0.06106194690265487</v>
+        <v>0.0636168691922802</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1575221238938053</v>
+        <v>0.1486776268763402</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/ETSU_B.xlsx
+++ b/team_specific_matrix/ETSU_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2070063694267516</v>
+        <v>0.2067988668555241</v>
       </c>
       <c r="C2">
-        <v>0.5445859872611465</v>
+        <v>0.5212464589235127</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01592356687898089</v>
+        <v>0.0254957507082153</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.124203821656051</v>
+        <v>0.1359773371104816</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1082802547770701</v>
+        <v>0.1104815864022663</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02824858757062147</v>
+        <v>0.02512562814070352</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04519774011299435</v>
+        <v>0.06030150753768844</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7457627118644068</v>
+        <v>0.7386934673366834</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1807909604519774</v>
+        <v>0.1758793969849246</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06666666666666667</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6222222222222222</v>
+        <v>0.6326530612244898</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3111111111111111</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03896103896103896</v>
+        <v>0.04417670682730924</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01298701298701299</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06926406926406926</v>
+        <v>0.07228915662650602</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.303030303030303</v>
+        <v>0.2931726907630522</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01298701298701299</v>
+        <v>0.01606425702811245</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.09956709956709957</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="R6">
-        <v>0.08658008658008658</v>
+        <v>0.09236947791164658</v>
       </c>
       <c r="S6">
-        <v>0.3766233766233766</v>
+        <v>0.3734939759036144</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.108695652173913</v>
+        <v>0.1060606060606061</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.005434782608695652</v>
+        <v>0.0101010101010101</v>
       </c>
       <c r="E7">
-        <v>0.005434782608695652</v>
+        <v>0.005050505050505051</v>
       </c>
       <c r="F7">
-        <v>0.05978260869565218</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1413043478260869</v>
+        <v>0.1464646464646465</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02717391304347826</v>
+        <v>0.02525252525252525</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1521739130434783</v>
+        <v>0.1616161616161616</v>
       </c>
       <c r="R7">
-        <v>0.07065217391304347</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="S7">
-        <v>0.4293478260869565</v>
+        <v>0.4141414141414141</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1037037037037037</v>
+        <v>0.1065759637188209</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.009876543209876543</v>
+        <v>0.01133786848072562</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04197530864197531</v>
+        <v>0.04535147392290249</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1407407407407407</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.007407407407407408</v>
+        <v>0.006802721088435374</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1802469135802469</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="R8">
-        <v>0.108641975308642</v>
+        <v>0.09977324263038549</v>
       </c>
       <c r="S8">
-        <v>0.4074074074074074</v>
+        <v>0.3968253968253968</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.06796116504854369</v>
+        <v>0.07798165137614679</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01941747572815534</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="E9">
-        <v>0.004854368932038835</v>
+        <v>0.004587155963302753</v>
       </c>
       <c r="F9">
-        <v>0.06796116504854369</v>
+        <v>0.06422018348623854</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0970873786407767</v>
+        <v>0.1009174311926606</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02427184466019417</v>
+        <v>0.02293577981651376</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1601941747572816</v>
+        <v>0.1605504587155963</v>
       </c>
       <c r="R9">
-        <v>0.1067961165048544</v>
+        <v>0.1055045871559633</v>
       </c>
       <c r="S9">
-        <v>0.4514563106796117</v>
+        <v>0.444954128440367</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1216012084592145</v>
+        <v>0.117687074829932</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02492447129909366</v>
+        <v>0.02312925170068027</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08081570996978851</v>
+        <v>0.07823129251700681</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1057401812688822</v>
+        <v>0.1163265306122449</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01359516616314199</v>
+        <v>0.01496598639455782</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.202416918429003</v>
+        <v>0.1986394557823129</v>
       </c>
       <c r="R10">
-        <v>0.06797583081570997</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="S10">
-        <v>0.3829305135951662</v>
+        <v>0.3795918367346939</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1153846153846154</v>
+        <v>0.1174698795180723</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09935897435897435</v>
+        <v>0.0963855421686747</v>
       </c>
       <c r="K11">
-        <v>0.1826923076923077</v>
+        <v>0.1837349397590362</v>
       </c>
       <c r="L11">
-        <v>0.5961538461538461</v>
+        <v>0.5963855421686747</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.00641025641025641</v>
+        <v>0.006024096385542169</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.25</v>
+        <v>0.2415458937198068</v>
       </c>
       <c r="K12">
-        <v>0.03125</v>
+        <v>0.02898550724637681</v>
       </c>
       <c r="L12">
-        <v>0.03125</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02083333333333333</v>
+        <v>0.01932367149758454</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6</v>
+        <v>0.5740740740740741</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.32</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.08</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01970443349753695</v>
+        <v>0.02252252252252252</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1428571428571428</v>
+        <v>0.1306306306306306</v>
       </c>
       <c r="I15">
-        <v>0.1330049261083744</v>
+        <v>0.1261261261261261</v>
       </c>
       <c r="J15">
-        <v>0.2906403940886699</v>
+        <v>0.3108108108108108</v>
       </c>
       <c r="K15">
-        <v>0.07389162561576355</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01477832512315271</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.06403940886699508</v>
+        <v>0.06306306306306306</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2610837438423645</v>
+        <v>0.2522522522522522</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02051282051282051</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1948717948717949</v>
+        <v>0.1926605504587156</v>
       </c>
       <c r="I16">
-        <v>0.06666666666666667</v>
+        <v>0.07339449541284404</v>
       </c>
       <c r="J16">
-        <v>0.3641025641025641</v>
+        <v>0.3623853211009174</v>
       </c>
       <c r="K16">
-        <v>0.1128205128205128</v>
+        <v>0.1100917431192661</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.03076923076923077</v>
+        <v>0.02752293577981652</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03589743589743589</v>
+        <v>0.03211009174311927</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1743589743589744</v>
+        <v>0.1834862385321101</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01658767772511848</v>
+        <v>0.01495726495726496</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1635071090047393</v>
+        <v>0.1602564102564103</v>
       </c>
       <c r="I17">
-        <v>0.07582938388625593</v>
+        <v>0.07264957264957266</v>
       </c>
       <c r="J17">
-        <v>0.4075829383886256</v>
+        <v>0.405982905982906</v>
       </c>
       <c r="K17">
-        <v>0.1042654028436019</v>
+        <v>0.108974358974359</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02132701421800948</v>
+        <v>0.02136752136752137</v>
       </c>
       <c r="N17">
-        <v>0.002369668246445498</v>
+        <v>0.002136752136752137</v>
       </c>
       <c r="O17">
-        <v>0.05450236966824645</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1540284360189574</v>
+        <v>0.1581196581196581</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02645502645502645</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.164021164021164</v>
+        <v>0.15</v>
       </c>
       <c r="I18">
-        <v>0.08465608465608465</v>
+        <v>0.07727272727272727</v>
       </c>
       <c r="J18">
-        <v>0.4497354497354497</v>
+        <v>0.4727272727272727</v>
       </c>
       <c r="K18">
-        <v>0.06349206349206349</v>
+        <v>0.06363636363636363</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01058201058201058</v>
+        <v>0.00909090909090909</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03174603174603174</v>
+        <v>0.04090909090909091</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1693121693121693</v>
+        <v>0.1636363636363636</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.02001429592566119</v>
+        <v>0.01921802518223989</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.174410293066476</v>
+        <v>0.1776010603048376</v>
       </c>
       <c r="I19">
-        <v>0.08434596140100072</v>
+        <v>0.08151093439363817</v>
       </c>
       <c r="J19">
-        <v>0.3824160114367405</v>
+        <v>0.3836978131212724</v>
       </c>
       <c r="K19">
-        <v>0.1050750536097212</v>
+        <v>0.1040424121935056</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02072909220872051</v>
+        <v>0.02120609675281643</v>
       </c>
       <c r="N19">
-        <v>0.0007147962830593281</v>
+        <v>0.0006626905235255136</v>
       </c>
       <c r="O19">
-        <v>0.0636168691922802</v>
+        <v>0.06295559973492379</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1486776268763402</v>
+        <v>0.1491053677932405</v>
       </c>
     </row>
   </sheetData>
